--- a/data/00_lookup_tables_and_maps/01_lookup_tables/municipalities.xlsx
+++ b/data/00_lookup_tables_and_maps/01_lookup_tables/municipalities.xlsx
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>geometry</t>
+          <t>population_kommune</t>
         </is>
       </c>
     </row>
@@ -405,6 +405,9 @@
           <t>Oslo</t>
         </is>
       </c>
+      <c r="E2">
+        <v>693494</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -427,6 +430,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E3">
+        <v>14811</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -449,6 +455,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E4">
+        <v>143574</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -471,6 +480,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E5">
+        <v>37357</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -493,6 +505,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E6">
+        <v>79537</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -515,6 +530,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E7">
+        <v>3280</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -537,6 +555,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E8">
+        <v>3202</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -559,6 +580,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E9">
+        <v>2787</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -581,6 +605,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E10">
+        <v>18991</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -603,6 +630,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E11">
+        <v>19588</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -625,6 +655,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E12">
+        <v>18916</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -647,6 +680,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E13">
+        <v>12002</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -669,6 +705,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E14">
+        <v>27153</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -691,6 +730,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E15">
+        <v>11221</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -713,6 +755,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E16">
+        <v>12968</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -735,6 +780,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E17">
+        <v>2574</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -757,6 +805,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E18">
+        <v>3804</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -779,6 +830,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E19">
+        <v>4595</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -801,6 +855,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E20">
+        <v>517</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -823,6 +880,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E21">
+        <v>852</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -845,6 +905,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E22">
+        <v>11065</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -867,6 +930,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E23">
+        <v>42186</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -889,6 +955,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E24">
+        <v>198</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -911,6 +980,9 @@
           <t>Rogaland</t>
         </is>
       </c>
+      <c r="E25">
+        <v>8714</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -933,6 +1005,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E26">
+        <v>24179</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -955,6 +1030,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E27">
+        <v>31967</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -977,6 +1055,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E28">
+        <v>66258</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -999,6 +1080,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E29">
+        <v>3117</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1021,6 +1105,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E30">
+        <v>2461</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1043,6 +1130,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E31">
+        <v>8900</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1065,6 +1155,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E32">
+        <v>8571</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1087,6 +1180,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E33">
+        <v>5175</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1109,6 +1205,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E34">
+        <v>10825</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1131,6 +1230,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E35">
+        <v>4523</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1153,6 +1255,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E36">
+        <v>7625</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1175,6 +1280,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E37">
+        <v>9310</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1197,6 +1305,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E38">
+        <v>8462</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1219,6 +1330,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E39">
+        <v>6532</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1241,6 +1355,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E40">
+        <v>7468</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1263,6 +1380,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E41">
+        <v>3509</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1285,6 +1405,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E42">
+        <v>5788</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1307,6 +1430,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E43">
+        <v>2629</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1329,6 +1455,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E44">
+        <v>3025</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1351,6 +1480,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E45">
+        <v>7036</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1373,6 +1505,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E46">
+        <v>5920</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1395,6 +1530,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E47">
+        <v>2150</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1417,6 +1555,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E48">
+        <v>3507</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1439,6 +1580,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E49">
+        <v>10473</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1461,6 +1605,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E50">
+        <v>2549</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1483,6 +1630,9 @@
           <t>Møre og Romsdal</t>
         </is>
       </c>
+      <c r="E51">
+        <v>13279</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1505,6 +1655,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E52">
+        <v>52357</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1527,6 +1680,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E53">
+        <v>21845</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1549,6 +1705,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E54">
+        <v>1426</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1571,6 +1730,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E55">
+        <v>1975</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1593,6 +1755,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E56">
+        <v>7917</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1615,6 +1780,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E57">
+        <v>1200</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1637,6 +1805,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E58">
+        <v>462</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1659,6 +1830,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E59">
+        <v>1777</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1681,6 +1855,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E60">
+        <v>7447</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1703,6 +1880,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E61">
+        <v>2294</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1725,6 +1905,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E62">
+        <v>13278</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1747,6 +1930,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E63">
+        <v>1482</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1769,6 +1955,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E64">
+        <v>1297</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1791,6 +1980,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E65">
+        <v>1371</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1813,6 +2005,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E66">
+        <v>1761</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1835,6 +2030,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E67">
+        <v>4454</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1857,6 +2055,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E68">
+        <v>26184</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1879,6 +2080,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E69">
+        <v>1890</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1901,6 +2105,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E70">
+        <v>435</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1923,6 +2130,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E71">
+        <v>1213</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1945,6 +2155,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E72">
+        <v>6288</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1967,6 +2180,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E73">
+        <v>1950</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1989,6 +2205,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E74">
+        <v>1017</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2011,6 +2230,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E75">
+        <v>4671</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2033,6 +2255,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E76">
+        <v>9739</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2055,6 +2280,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E77">
+        <v>1926</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2077,6 +2305,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E78">
+        <v>2608</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2099,6 +2330,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E79">
+        <v>2034</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2121,6 +2355,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E80">
+        <v>1348</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2143,6 +2380,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E81">
+        <v>498</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2165,6 +2405,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E82">
+        <v>728</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2187,6 +2430,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E83">
+        <v>1272</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2209,6 +2455,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E84">
+        <v>11433</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2231,6 +2480,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E85">
+        <v>9608</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2253,6 +2505,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E86">
+        <v>8061</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2275,6 +2530,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E87">
+        <v>2569</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2297,6 +2555,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E88">
+        <v>4410</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2319,6 +2580,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E89">
+        <v>10566</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2341,6 +2605,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E90">
+        <v>4663</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2363,6 +2630,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E91">
+        <v>1015</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2385,6 +2655,9 @@
           <t>Nordland</t>
         </is>
       </c>
+      <c r="E92">
+        <v>2766</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2407,6 +2680,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E93">
+        <v>31373</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2429,6 +2705,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E94">
+        <v>49273</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2451,6 +2730,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E95">
+        <v>56732</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2473,6 +2755,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E96">
+        <v>82385</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2495,6 +2780,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E97">
+        <v>101386</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2517,6 +2805,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E98">
+        <v>27723</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2539,6 +2830,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E99">
+        <v>30641</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2561,6 +2855,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E100">
+        <v>4668</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2583,6 +2880,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E101">
+        <v>1325</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2605,6 +2905,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E102">
+        <v>3595</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2627,6 +2930,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E103">
+        <v>44792</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2649,6 +2955,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E104">
+        <v>3805</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2671,6 +2980,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E105">
+        <v>8255</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2693,6 +3005,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E106">
+        <v>7508</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2715,6 +3030,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E107">
+        <v>5736</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2737,6 +3055,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E108">
+        <v>18042</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2759,6 +3080,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E109">
+        <v>59288</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2781,6 +3105,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E110">
+        <v>20439</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2803,6 +3130,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E111">
+        <v>15877</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2825,6 +3155,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E112">
+        <v>19616</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2847,6 +3180,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E113">
+        <v>127731</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2869,6 +3205,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E114">
+        <v>94441</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2891,6 +3230,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E115">
+        <v>17390</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2913,6 +3255,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E116">
+        <v>18530</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2935,6 +3280,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E117">
+        <v>11110</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2957,6 +3305,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E118">
+        <v>41460</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2979,6 +3330,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E119">
+        <v>85983</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3001,6 +3355,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E120">
+        <v>24249</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3023,6 +3380,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E121">
+        <v>6890</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3045,6 +3405,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E122">
+        <v>39625</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3067,6 +3430,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E123">
+        <v>23092</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3089,6 +3455,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E124">
+        <v>25436</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3111,6 +3480,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E125">
+        <v>14139</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3133,6 +3505,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E126">
+        <v>2854</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3155,6 +3530,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E127">
+        <v>6799</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3177,6 +3555,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E128">
+        <v>1050</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3199,6 +3580,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E129">
+        <v>3273</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3221,6 +3605,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E130">
+        <v>4608</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3243,6 +3630,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E131">
+        <v>2486</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3265,6 +3655,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E132">
+        <v>4674</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3287,6 +3680,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E133">
+        <v>4441</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3309,6 +3705,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E134">
+        <v>3467</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3331,6 +3730,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E135">
+        <v>2212</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3353,6 +3755,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E136">
+        <v>14115</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3375,6 +3780,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E137">
+        <v>19423</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3397,6 +3805,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E138">
+        <v>26811</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3419,6 +3830,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E139">
+        <v>2688</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3441,6 +3855,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E140">
+        <v>1390</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3463,6 +3880,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E141">
+        <v>2439</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3485,6 +3905,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E142">
+        <v>6852</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3507,6 +3930,9 @@
           <t>Viken</t>
         </is>
       </c>
+      <c r="E143">
+        <v>9048</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3529,6 +3955,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E144">
+        <v>17829</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3551,6 +3980,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E145">
+        <v>31369</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3573,6 +4005,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E146">
+        <v>28345</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3595,6 +4030,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E147">
+        <v>30560</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3617,6 +4055,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E148">
+        <v>34768</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3639,6 +4080,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E149">
+        <v>7674</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3661,6 +4105,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E150">
+        <v>21064</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3683,6 +4130,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E151">
+        <v>5016</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3705,6 +4155,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E152">
+        <v>7905</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3727,6 +4180,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E153">
+        <v>6106</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3749,6 +4205,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E154">
+        <v>4612</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3771,6 +4230,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E155">
+        <v>7203</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3793,6 +4255,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E156">
+        <v>3662</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3815,6 +4280,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E157">
+        <v>21254</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3837,6 +4305,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E158">
+        <v>6627</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3859,6 +4330,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E159">
+        <v>4356</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3881,6 +4355,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E160">
+        <v>2419</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3903,6 +4380,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E161">
+        <v>1780</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3925,6 +4405,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E162">
+        <v>1268</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3947,6 +4430,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E163">
+        <v>1562</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3969,6 +4455,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E164">
+        <v>5578</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3991,6 +4480,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E165">
+        <v>2432</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4013,6 +4505,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E166">
+        <v>1545</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4035,6 +4530,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E167">
+        <v>1891</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4057,6 +4555,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E168">
+        <v>2553</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4079,6 +4580,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E169">
+        <v>1975</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4101,6 +4605,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E170">
+        <v>2197</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4123,6 +4630,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E171">
+        <v>2228</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4145,6 +4655,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E172">
+        <v>3570</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4167,6 +4680,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E173">
+        <v>5723</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4189,6 +4705,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E174">
+        <v>5739</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4211,6 +4730,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E175">
+        <v>3119</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4233,6 +4755,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E176">
+        <v>4392</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4255,6 +4780,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E177">
+        <v>5100</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4277,6 +4805,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E178">
+        <v>6106</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4299,6 +4830,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E179">
+        <v>14973</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4321,6 +4855,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E180">
+        <v>13427</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4343,6 +4880,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E181">
+        <v>13630</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4365,6 +4905,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E182">
+        <v>5617</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4387,6 +4930,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E183">
+        <v>6633</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4409,6 +4955,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E184">
+        <v>2954</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4431,6 +4980,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E185">
+        <v>1279</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4453,6 +5005,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E186">
+        <v>6413</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4475,6 +5030,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E187">
+        <v>2125</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4497,6 +5055,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E188">
+        <v>3229</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4519,6 +5080,9 @@
           <t>Innlandet</t>
         </is>
       </c>
+      <c r="E189">
+        <v>1578</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4541,6 +5105,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E190">
+        <v>27351</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4563,6 +5130,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E191">
+        <v>24699</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4585,6 +5155,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E192">
+        <v>56293</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4607,6 +5180,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E193">
+        <v>63764</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4629,6 +5205,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E194">
+        <v>47204</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4651,6 +5230,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E195">
+        <v>36397</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4673,6 +5255,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E196">
+        <v>54942</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4695,6 +5280,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E197">
+        <v>13049</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4717,6 +5305,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E198">
+        <v>26730</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4739,6 +5330,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E199">
+        <v>2340</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4761,6 +5355,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E200">
+        <v>14061</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4783,6 +5380,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E201">
+        <v>10380</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4805,6 +5405,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E202">
+        <v>4060</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4827,6 +5430,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E203">
+        <v>6515</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4849,6 +5455,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E204">
+        <v>10444</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4871,6 +5480,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E205">
+        <v>5691</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4893,6 +5505,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E206">
+        <v>1573</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4915,6 +5530,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E207">
+        <v>2888</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4937,6 +5555,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E208">
+        <v>2403</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4959,6 +5580,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E209">
+        <v>1448</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4981,6 +5605,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E210">
+        <v>1287</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5003,6 +5630,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E211">
+        <v>2201</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5025,6 +5655,9 @@
           <t>Vestfold og Telemark</t>
         </is>
       </c>
+      <c r="E212">
+        <v>3676</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5047,6 +5680,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E213">
+        <v>6809</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5069,6 +5705,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E214">
+        <v>23544</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5091,6 +5730,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E215">
+        <v>44999</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5113,6 +5755,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E216">
+        <v>111633</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5135,6 +5780,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E217">
+        <v>23046</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5157,6 +5805,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E218">
+        <v>9691</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5179,6 +5830,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E219">
+        <v>9028</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5201,6 +5855,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E220">
+        <v>2428</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5223,6 +5880,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E221">
+        <v>2097</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5245,6 +5905,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E222">
+        <v>6053</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5267,6 +5930,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E223">
+        <v>5951</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5289,6 +5955,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E224">
+        <v>11074</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5311,6 +5980,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E225">
+        <v>5226</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5333,6 +6005,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E226">
+        <v>1836</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5355,6 +6030,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E227">
+        <v>1331</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5377,6 +6055,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E228">
+        <v>3634</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5399,6 +6080,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E229">
+        <v>1162</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5421,6 +6105,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E230">
+        <v>1164</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5443,6 +6130,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E231">
+        <v>965</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5465,6 +6155,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E232">
+        <v>14774</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5487,6 +6180,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E233">
+        <v>932</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5509,6 +6205,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E234">
+        <v>10365</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5531,6 +6230,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E235">
+        <v>1680</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5553,6 +6255,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E236">
+        <v>5987</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5575,6 +6280,9 @@
           <t>Agder</t>
         </is>
       </c>
+      <c r="E237">
+        <v>1822</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5597,6 +6305,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E238">
+        <v>283929</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5619,6 +6330,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E239">
+        <v>17207</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5641,6 +6355,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E240">
+        <v>4062</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5663,6 +6380,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E241">
+        <v>5766</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5685,6 +6405,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E242">
+        <v>11957</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5707,6 +6430,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E243">
+        <v>18759</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5729,6 +6455,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E244">
+        <v>3189</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5751,6 +6480,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E245">
+        <v>2869</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5773,6 +6505,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E246">
+        <v>13071</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5795,6 +6530,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E247">
+        <v>11048</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5817,6 +6555,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E248">
+        <v>906</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5839,6 +6580,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E249">
+        <v>1080</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5861,6 +6605,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E250">
+        <v>15740</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5883,6 +6630,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E251">
+        <v>8457</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5905,6 +6655,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E252">
+        <v>2485</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5927,6 +6680,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E253">
+        <v>24908</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5949,6 +6705,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E254">
+        <v>5236</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5971,6 +6730,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E255">
+        <v>38316</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5993,6 +6755,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E256">
+        <v>29553</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6015,6 +6780,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E257">
+        <v>3977</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6037,6 +6805,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E258">
+        <v>388</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6059,6 +6830,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E259">
+        <v>8098</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6081,6 +6855,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E260">
+        <v>29224</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6103,6 +6880,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E261">
+        <v>2870</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6125,6 +6905,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E262">
+        <v>548</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6147,6 +6930,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E263">
+        <v>1691</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6169,6 +6955,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E264">
+        <v>2297</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6191,6 +6980,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E265">
+        <v>802</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6213,6 +7005,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E266">
+        <v>1328</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6235,6 +7030,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E267">
+        <v>4101</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6257,6 +7055,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E268">
+        <v>2635</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6279,6 +7080,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E269">
+        <v>11847</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6301,6 +7105,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E270">
+        <v>1781</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6323,6 +7130,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E271">
+        <v>2126</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6345,6 +7155,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E272">
+        <v>5193</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6367,6 +7180,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E273">
+        <v>5174</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6389,6 +7205,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E274">
+        <v>3011</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6411,6 +7230,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E275">
+        <v>2802</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6433,6 +7255,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E276">
+        <v>22030</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6455,6 +7280,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E277">
+        <v>3629</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6477,6 +7305,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E278">
+        <v>9457</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6499,6 +7330,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E279">
+        <v>5854</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6521,6 +7355,9 @@
           <t>Vestland</t>
         </is>
       </c>
+      <c r="E280">
+        <v>7130</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6543,16 +7380,19 @@
           <t>Trøndelag</t>
         </is>
       </c>
+      <c r="E281">
+        <v>205163</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>5001</t>
+          <t>5006</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6562,19 +7402,22 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Trøndelag Trööndelage</t>
-        </is>
+          <t>Trøndelag</t>
+        </is>
+      </c>
+      <c r="E282">
+        <v>24357</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>5006</t>
+          <t>5007</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6586,17 +7429,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E283">
+        <v>15230</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>5007</t>
+          <t>5014</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Frøya</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6608,17 +7454,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E284">
+        <v>5151</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>5014</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Frøya</t>
+          <t>Osen</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6630,17 +7479,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E285">
+        <v>948</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>5021</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Osen</t>
+          <t>Oppdal</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6652,17 +7504,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E286">
+        <v>7001</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>5021</t>
+          <t>5022</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Oppdal</t>
+          <t>Rennebu</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6674,17 +7529,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E287">
+        <v>2486</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>5022</t>
+          <t>5025</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Rennebu</t>
+          <t>Røros</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6696,17 +7554,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E288">
+        <v>5581</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>5025</t>
+          <t>5026</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Røros</t>
+          <t>Holtålen</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6718,17 +7579,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E289">
+        <v>1981</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>5026</t>
+          <t>5027</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Holtålen</t>
+          <t>Midtre Gauldal</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6740,17 +7604,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E290">
+        <v>6238</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>5027</t>
+          <t>5028</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Midtre Gauldal</t>
+          <t>Melhus</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6762,17 +7629,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E291">
+        <v>16733</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>5029</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Melhus</t>
+          <t>Skaun</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6784,17 +7654,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E292">
+        <v>8325</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>5031</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Skaun</t>
+          <t>Malvik</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6806,17 +7679,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E293">
+        <v>14148</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>5031</t>
+          <t>5032</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Malvik</t>
+          <t>Selbu</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -6828,17 +7704,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E294">
+        <v>4062</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>5032</t>
+          <t>5033</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Selbu</t>
+          <t>Tydal</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6850,17 +7729,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E295">
+        <v>769</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>5033</t>
+          <t>5034</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Tydal</t>
+          <t>Meråker</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6872,17 +7754,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E296">
+        <v>2422</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>5035</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Meråker</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6894,17 +7779,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E297">
+        <v>24145</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>5035</t>
+          <t>5036</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Frosta</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6916,17 +7804,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E298">
+        <v>2627</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>5036</t>
+          <t>5037</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Frosta</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6938,17 +7829,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E299">
+        <v>20164</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>5037</t>
+          <t>5038</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6960,17 +7854,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E300">
+        <v>14948</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>5038</t>
+          <t>5041</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Snåsa</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6982,17 +7879,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E301">
+        <v>2063</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>5041</t>
+          <t>5042</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Snåsa</t>
+          <t>Lierne</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -7004,17 +7904,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E302">
+        <v>1355</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>5042</t>
+          <t>5043</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Lierne</t>
+          <t>Røyrvik</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7026,17 +7929,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E303">
+        <v>461</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>5043</t>
+          <t>5044</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Røyrvik</t>
+          <t>Namsskogan</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7048,17 +7954,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E304">
+        <v>843</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>5045</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Namsskogan</t>
+          <t>Grong</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -7070,17 +7979,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E305">
+        <v>2359</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>5045</t>
+          <t>5046</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Grong</t>
+          <t>Høylandet</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7092,17 +8004,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E306">
+        <v>1231</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>5046</t>
+          <t>5047</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Høylandet</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -7114,17 +8029,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E307">
+        <v>3884</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>5047</t>
+          <t>5049</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Flatanger</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -7136,17 +8054,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E308">
+        <v>1103</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>5049</t>
+          <t>5052</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Flatanger</t>
+          <t>Leka</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7158,17 +8079,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E309">
+        <v>557</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>5052</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Leka</t>
+          <t>Inderøy</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7180,17 +8104,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E310">
+        <v>6816</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>5054</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Inderøy</t>
+          <t>Indre Fosen</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7202,17 +8129,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E311">
+        <v>10084</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>5054</t>
+          <t>5055</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Indre Fosen</t>
+          <t>Heim</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -7224,17 +8154,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E312">
+        <v>5963</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>5055</t>
+          <t>5056</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Heim</t>
+          <t>Hitra</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7246,17 +8179,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E313">
+        <v>5050</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5056</t>
+          <t>5057</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Hitra</t>
+          <t>Ørland</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -7268,17 +8204,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E314">
+        <v>10323</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>5057</t>
+          <t>5058</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ørland</t>
+          <t>Åfjord</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7290,17 +8229,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E315">
+        <v>4288</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>5058</t>
+          <t>5059</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Åfjord</t>
+          <t>Orkland</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7312,17 +8254,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E316">
+        <v>18217</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>5059</t>
+          <t>5060</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Orkland</t>
+          <t>Nærøysund</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7334,17 +8279,20 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E317">
+        <v>9623</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>5060</t>
+          <t>5061</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Nærøysund</t>
+          <t>Rindal</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7356,39 +8304,45 @@
         <is>
           <t>Trøndelag</t>
         </is>
+      </c>
+      <c r="E318">
+        <v>2003</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>5061</t>
+          <t>5401</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Rindal</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Trøndelag</t>
-        </is>
+          <t>Troms og Finnmark</t>
+        </is>
+      </c>
+      <c r="E319">
+        <v>76974</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>5401</t>
+          <t>5402</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7400,17 +8354,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E320">
+        <v>24703</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>5402</t>
+          <t>5403</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Harstad</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -7422,17 +8379,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E321">
+        <v>20789</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>5403</t>
+          <t>5404</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Vardø</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7444,17 +8404,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E322">
+        <v>2029</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>5404</t>
+          <t>5405</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Vardø</t>
+          <t>Vadsø</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7466,17 +8429,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E323">
+        <v>5788</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>5405</t>
+          <t>5406</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Vadsø</t>
+          <t>Hammerfest</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -7488,17 +8454,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E324">
+        <v>11448</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>5406</t>
+          <t>5411</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Hammerfest</t>
+          <t>Kvæfjord</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7510,17 +8479,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E325">
+        <v>2839</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>5411</t>
+          <t>5412</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Kvæfjord</t>
+          <t>Tjeldsund</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7532,17 +8504,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E326">
+        <v>4216</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>5412</t>
+          <t>5413</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tjeldsund</t>
+          <t>Ibestad</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7554,17 +8529,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E327">
+        <v>1361</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>5413</t>
+          <t>5414</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Ibestad</t>
+          <t>Gratangen</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7576,17 +8554,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E328">
+        <v>1091</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>5414</t>
+          <t>5415</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Gratangen</t>
+          <t>Lavangen</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7598,17 +8579,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E329">
+        <v>1034</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>5415</t>
+          <t>5416</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Lavangen</t>
+          <t>Bardu</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7620,17 +8604,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E330">
+        <v>4005</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>5416</t>
+          <t>5417</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Bardu</t>
+          <t>Salangen</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7642,17 +8629,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E331">
+        <v>2146</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>5417</t>
+          <t>5418</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Salangen</t>
+          <t>Målselv</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7664,17 +8654,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E332">
+        <v>6640</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>5418</t>
+          <t>5419</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Målselv</t>
+          <t>Sørreisa</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7686,17 +8679,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E333">
+        <v>3464</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>5420</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sørreisa</t>
+          <t>Dyrøy</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7708,17 +8704,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E334">
+        <v>1083</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>5420</t>
+          <t>5421</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Dyrøy</t>
+          <t>Senja</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7730,17 +8729,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E335">
+        <v>14851</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>5421</t>
+          <t>5422</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Senja</t>
+          <t>Balsfjord</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7752,17 +8754,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E336">
+        <v>5559</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>5422</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Balsfjord</t>
+          <t>Karlsøy</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7774,17 +8779,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E337">
+        <v>2200</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>5424</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Karlsøy</t>
+          <t>Lyngen</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7796,17 +8804,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E338">
+        <v>2794</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>5424</t>
+          <t>5425</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Lyngen</t>
+          <t>Storfjord</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7818,17 +8829,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E339">
+        <v>1829</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5425</t>
+          <t>5426</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Storfjord</t>
+          <t>Kåfjord</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7840,17 +8854,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E340">
+        <v>2071</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>5426</t>
+          <t>5427</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Kåfjord</t>
+          <t>Skjervøy</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7862,17 +8879,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E341">
+        <v>2927</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>5427</t>
+          <t>5428</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Skjervøy</t>
+          <t>Nordreisa</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7884,17 +8904,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E342">
+        <v>4861</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>5429</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Nordreisa</t>
+          <t>Kvænangen</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7906,17 +8929,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E343">
+        <v>1191</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>5429</t>
+          <t>5430</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Kvænangen</t>
+          <t>Kautokeino</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -7928,17 +8954,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E344">
+        <v>2910</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>5430</t>
+          <t>5432</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Kautokeino</t>
+          <t>Loppa</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7950,17 +8979,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E345">
+        <v>888</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>5432</t>
+          <t>5433</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Loppa</t>
+          <t>Hasvik</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -7972,17 +9004,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E346">
+        <v>1005</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>5433</t>
+          <t>5434</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Hasvik</t>
+          <t>Måsøy</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7994,17 +9029,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E347">
+        <v>1225</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>5434</t>
+          <t>5435</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Måsøy</t>
+          <t>Nordkapp</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -8016,17 +9054,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E348">
+        <v>3162</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>5435</t>
+          <t>5436</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Nordkapp</t>
+          <t>Porsanger</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -8038,17 +9079,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E349">
+        <v>3998</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>5436</t>
+          <t>5437</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Porsanger</t>
+          <t>Kárájohka - Karasjok</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -8060,17 +9104,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E350">
+        <v>2628</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>5437</t>
+          <t>5438</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Kárájohka - Karasjok</t>
+          <t>Lebesby</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -8082,17 +9129,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E351">
+        <v>1290</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Lebesby</t>
+          <t>Gamvik</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -8104,17 +9154,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E352">
+        <v>1132</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>5440</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Gamvik</t>
+          <t>Berlevåg</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -8126,17 +9179,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E353">
+        <v>957</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>5440</t>
+          <t>5441</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Berlevåg</t>
+          <t>Tana</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -8148,17 +9204,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E354">
+        <v>2918</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>5441</t>
+          <t>5442</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tana</t>
+          <t>Nesseby</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -8170,17 +9229,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E355">
+        <v>926</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>5442</t>
+          <t>5443</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Nesseby</t>
+          <t>Båtsfjord</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -8192,17 +9254,20 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E356">
+        <v>2221</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>5443</t>
+          <t>5444</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Båtsfjord</t>
+          <t>Sør-Varanger</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -8214,28 +9279,34 @@
         <is>
           <t>Troms og Finnmark</t>
         </is>
+      </c>
+      <c r="E357">
+        <v>10158</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>5444</t>
+          <t>5001</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Sør-Varanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Troms og Finnmark</t>
-        </is>
+          <t>Trøndelag Trööndelage</t>
+        </is>
+      </c>
+      <c r="E358">
+        <v>205163</v>
       </c>
     </row>
     <row r="359">
@@ -8259,6 +9330,9 @@
           <t>Ukjent Fylke</t>
         </is>
       </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8280,6 +9354,9 @@
         <is>
           <t>Svalbard</t>
         </is>
+      </c>
+      <c r="E360">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
